--- a/data/snowballing/study_set_7.xlsx
+++ b/data/snowballing/study_set_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="889">
   <si>
     <t xml:space="preserve">record_id</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3162760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicated (study_set₂)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr</t>
   </si>
   <si>
     <t xml:space="preserve">Also coded in Christidou_NA_housing in study set 2. Only use one  of these. </t>
@@ -2795,17 +2801,17 @@
   </sheetPr>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="7" style="0" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="11" style="0" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="16" style="0" width="11.95"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="7" style="0" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="11" style="0" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="16" style="0" width="12.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,13 +7144,19 @@
         <v>0</v>
       </c>
       <c r="W62" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X62" s="0" t="s">
+        <v>566</v>
       </c>
       <c r="Y62" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="Z62" s="0" t="s">
+        <v>567</v>
+      </c>
       <c r="AF62" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7152,31 +7164,31 @@
         <v>9711</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>1</v>
@@ -7191,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="S63" s="2" t="n">
         <v>45152</v>
@@ -7217,19 +7229,19 @@
         <v>1473</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>37</v>
@@ -7241,13 +7253,13 @@
         <v>39</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>1</v>
@@ -7262,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="S64" s="2" t="n">
         <v>45152</v>
@@ -7291,40 +7303,40 @@
         <v>10268</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>245</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="N65" s="0" t="n">
         <v>1</v>
@@ -7339,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="S65" s="2" t="n">
         <v>45152</v>
@@ -7368,37 +7380,37 @@
         <v>1999</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="N66" s="0" t="n">
         <v>1</v>
@@ -7413,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="S66" s="2" t="n">
         <v>45152</v>
@@ -7442,31 +7454,31 @@
         <v>2541</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>2023</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N67" s="0" t="n">
         <v>1</v>
@@ -7481,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="S67" s="2" t="n">
         <v>45152</v>
@@ -7499,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Y67" s="0" t="s">
         <v>46</v>
@@ -7510,13 +7522,13 @@
         <v>1034</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2004</v>
@@ -7525,13 +7537,13 @@
         <v>434</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N68" s="0" t="n">
         <v>0</v>
@@ -7569,13 +7581,13 @@
         <v>8106</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>2018</v>
@@ -7590,16 +7602,16 @@
         <v>39</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N69" s="0" t="n">
         <v>1</v>
@@ -7614,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="S69" s="2" t="n">
         <v>45152</v>
@@ -7629,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Y69" s="0" t="s">
         <v>46</v>
@@ -7640,37 +7652,37 @@
         <v>2155</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>302</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N70" s="0" t="n">
         <v>1</v>
@@ -7685,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="S70" s="2" t="n">
         <v>45152</v>
@@ -7711,13 +7723,13 @@
         <v>7006</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>2012</v>
@@ -7726,13 +7738,13 @@
         <v>340</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N71" s="0" t="n">
         <v>0</v>
@@ -7756,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="V71" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="W71" s="0" t="n">
         <v>0</v>
@@ -7773,40 +7785,40 @@
         <v>6401</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="N72" s="0" t="n">
         <v>1</v>
@@ -7821,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="S72" s="2" t="n">
         <v>45152</v>
@@ -7847,19 +7859,19 @@
         <v>7297</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>2</v>
@@ -7871,13 +7883,13 @@
         <v>39</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="N73" s="0" t="n">
         <v>1</v>
@@ -7892,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="S73" s="2" t="n">
         <v>45152</v>
@@ -7921,34 +7933,34 @@
         <v>112</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N74" s="0" t="n">
         <v>1</v>
@@ -7963,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="S74" s="2" t="n">
         <v>45152</v>
@@ -7989,37 +8001,37 @@
         <v>3158</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N75" s="0" t="n">
         <v>1</v>
@@ -8034,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="S75" s="2" t="n">
         <v>45152</v>
@@ -8060,37 +8072,37 @@
         <v>2044</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>128</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N76" s="0" t="n">
         <v>1</v>
@@ -8105,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="S76" s="2" t="n">
         <v>45152</v>
@@ -8131,13 +8143,13 @@
         <v>570</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>2022</v>
@@ -8146,13 +8158,13 @@
         <v>434</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="N77" s="0" t="n">
         <v>1</v>
@@ -8167,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="S77" s="2" t="n">
         <v>45152</v>
@@ -8193,13 +8205,13 @@
         <v>4408</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>2016</v>
@@ -8208,13 +8220,13 @@
         <v>39</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N78" s="0" t="n">
         <v>1</v>
@@ -8229,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="S78" s="2" t="n">
         <v>45152</v>
@@ -8255,37 +8267,37 @@
         <v>945</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N79" s="0" t="n">
         <v>1</v>
@@ -8300,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="S79" s="2" t="n">
         <v>45152</v>
@@ -8329,19 +8341,19 @@
         <v>10088</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>2</v>
@@ -8353,13 +8365,13 @@
         <v>39</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="N80" s="0" t="n">
         <v>1</v>
@@ -8374,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="S80" s="2" t="n">
         <v>45152</v>
@@ -8403,13 +8415,13 @@
         <v>664</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>2021</v>
@@ -8421,19 +8433,19 @@
         <v>168</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="N81" s="0" t="n">
         <v>1</v>
@@ -8448,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="S81" s="2" t="n">
         <v>45152</v>
@@ -8474,19 +8486,19 @@
         <v>3159</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>537</v>
@@ -8495,13 +8507,13 @@
         <v>39</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="N82" s="0" t="n">
         <v>1</v>
@@ -8516,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="S82" s="2" t="n">
         <v>45152</v>
@@ -8545,40 +8557,40 @@
         <v>679</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="N83" s="0" t="n">
         <v>1</v>
@@ -8593,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="S83" s="2" t="n">
         <v>45152</v>
@@ -8622,13 +8634,13 @@
         <v>8887</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>2021</v>
@@ -8637,10 +8649,10 @@
         <v>39</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="N84" s="0" t="n">
         <v>1</v>
@@ -8655,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="S84" s="2" t="n">
         <v>45152</v>
@@ -8684,37 +8696,37 @@
         <v>2558</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="N85" s="0" t="n">
         <v>1</v>
@@ -8729,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="S85" s="2" t="n">
         <v>45152</v>
@@ -8755,19 +8767,19 @@
         <v>7959</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>1</v>
@@ -8779,10 +8791,10 @@
         <v>39</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="N86" s="0" t="n">
         <v>1</v>
@@ -8797,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="S86" s="2" t="n">
         <v>45152</v>
@@ -8826,31 +8838,31 @@
         <v>6459</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>2002</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="N87" s="0" t="n">
         <v>1</v>
@@ -8865,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="R87" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="S87" s="2" t="n">
         <v>45152</v>
@@ -8891,13 +8903,13 @@
         <v>573</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>2022</v>
@@ -8906,19 +8918,19 @@
         <v>50</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="I88" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N88" s="0" t="n">
         <v>1</v>
@@ -8933,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="R88" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="S88" s="2" t="n">
         <v>45152</v>
@@ -8959,19 +8971,19 @@
         <v>10290</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>271</v>
@@ -8983,16 +8995,16 @@
         <v>39</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="N89" s="0" t="n">
         <v>1</v>
@@ -9007,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="S89" s="2" t="n">
         <v>45152</v>
@@ -9033,13 +9045,13 @@
         <v>7133</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>2015</v>
@@ -9048,13 +9060,13 @@
         <v>434</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N90" s="0" t="n">
         <v>1</v>
@@ -9069,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="R90" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="S90" s="2" t="n">
         <v>45152</v>
@@ -9095,37 +9107,37 @@
         <v>3038</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>37</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N91" s="0" t="n">
         <v>1</v>
@@ -9140,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="S91" s="2" t="n">
         <v>45152</v>
@@ -9155,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="Y91" s="0" t="s">
         <v>46</v>
@@ -9166,19 +9178,19 @@
         <v>1053</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>37</v>
@@ -9190,13 +9202,13 @@
         <v>39</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="N92" s="0" t="n">
         <v>1</v>
@@ -9211,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="S92" s="2" t="n">
         <v>45152</v>
@@ -9234,19 +9246,19 @@
         <v>7439</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>128</v>
@@ -9258,10 +9270,10 @@
         <v>39</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="N93" s="0" t="n">
         <v>1</v>
@@ -9276,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="S93" s="2" t="n">
         <v>45152</v>
@@ -9302,40 +9314,40 @@
         <v>6567</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>128</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="N94" s="0" t="n">
         <v>1</v>
@@ -9350,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="S94" s="2" t="n">
         <v>45152</v>
@@ -9368,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="Y94" s="0" t="s">
         <v>46</v>
@@ -9379,13 +9391,13 @@
         <v>1164</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>2010</v>
@@ -9394,13 +9406,13 @@
         <v>39</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N95" s="0" t="n">
         <v>1</v>
@@ -9415,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="S95" s="2" t="n">
         <v>45152</v>
@@ -9441,13 +9453,13 @@
         <v>4657</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>2020</v>
@@ -9459,13 +9471,13 @@
         <v>39</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="N96" s="0" t="n">
         <v>1</v>
@@ -9480,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="S96" s="2" t="n">
         <v>45152</v>
@@ -9492,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="W96" s="0" t="n">
         <v>0</v>
@@ -9509,37 +9521,37 @@
         <v>2993</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>128</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="N97" s="0" t="n">
         <v>1</v>
@@ -9554,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="S97" s="2" t="n">
         <v>45152</v>
@@ -9580,19 +9592,19 @@
         <v>115</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>8</v>
@@ -9604,16 +9616,16 @@
         <v>39</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="N98" s="0" t="n">
         <v>1</v>
@@ -9628,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="S98" s="2" t="n">
         <v>45152</v>
@@ -9657,40 +9669,40 @@
         <v>8012</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1986</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="N99" s="0" t="n">
         <v>0</v>
@@ -9705,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="S99" s="2" t="n">
         <v>45152</v>
@@ -9734,40 +9746,40 @@
         <v>10116</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>128</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="N100" s="0" t="n">
         <v>1</v>
@@ -9782,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="R100" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="S100" s="2" t="n">
         <v>45152</v>
@@ -9805,13 +9817,13 @@
         <v>10366</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>2012</v>
@@ -9820,13 +9832,13 @@
         <v>434</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="N101" s="0" t="n">
         <v>0</v>
@@ -9841,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="S101" s="2" t="n">
         <v>45152</v>
